--- a/biology/Zoologie/Buprestis_octoguttata/Buprestis_octoguttata.xlsx
+++ b/biology/Zoologie/Buprestis_octoguttata/Buprestis_octoguttata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buprestis octoguttata, le Bupreste à huit taches en langue vernaculaire, est une espèce de coléoptères de la famille des Buprestidae que l'on trouve en Europe en lisière des pinèdes sablonneuses.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce coléoptère mesure de 9 à 18 millimètres. Il se caractérise par sa couleur d'un bleu éclatant métallique et ses élytres qui portent quatre taches jaunes chacun en forme d'ovale oblique, et deux taches jaunes derrière la capsule céphalique.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses larves creusent des galeries dans les pins et dans le bois mort. Les imagos sont actifs de mai à début septembre et se rencontrent dans les forêts de pins par temps chaud, s'envolant au moindre dérangement.
 </t>
@@ -573,7 +589,9 @@
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Buprestis octoguttata corsica Obenberger, 1938.
 Sur les autres projets Wikimedia :
